--- a/Benchmark_best_results_homberger.xlsx
+++ b/Benchmark_best_results_homberger.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joket\IdeaProjects\VRP_EA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5416123E-6A8D-44F1-AF31-E1D70A04873A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8087D9FB-EF66-47BB-8109-53523112D166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{85B6A781-0719-4098-83BF-6BB191B875A1}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="76">
   <si>
-    <t>Instance</t>
-  </si>
-  <si>
     <t>Vehicles</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>Q</t>
   </si>
   <si>
-    <t>c1_8_5q</t>
-  </si>
-  <si>
     <t>RP</t>
   </si>
   <si>
@@ -116,9 +110,6 @@
     <t>c2_8_4</t>
   </si>
   <si>
-    <t>c2_8_5b</t>
-  </si>
-  <si>
     <t>NBD</t>
   </si>
   <si>
@@ -264,6 +255,15 @@
   </si>
   <si>
     <t>rc2_8_10</t>
+  </si>
+  <si>
+    <t>dataset</t>
+  </si>
+  <si>
+    <t>c2_8_5</t>
+  </si>
+  <si>
+    <t>c1_8_5</t>
   </si>
 </sst>
 </file>
@@ -810,30 +810,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E238F71C-BA9D-40B9-9E0E-9DD89D721BBB}">
   <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2">
         <v>80</v>
@@ -842,15 +844,15 @@
         <v>25030.36</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2">
         <v>72</v>
@@ -859,7 +861,7 @@
         <v>26540.53</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="4">
         <v>43497</v>
@@ -867,7 +869,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2">
         <v>72</v>
@@ -876,7 +878,7 @@
         <v>24242.49</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="4">
         <v>43374</v>
@@ -884,7 +886,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2">
         <v>72</v>
@@ -893,7 +895,7 @@
         <v>23824.17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="5">
         <v>41940</v>
@@ -901,7 +903,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="B6" s="2">
         <v>80</v>
@@ -910,7 +912,7 @@
         <v>25166.28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6" s="5">
         <v>38408</v>
@@ -918,7 +920,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2">
         <v>79</v>
@@ -927,7 +929,7 @@
         <v>26873.86</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="5">
         <v>44549</v>
@@ -935,7 +937,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2">
         <v>77</v>
@@ -944,7 +946,7 @@
         <v>26464.91</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="5">
         <v>44549</v>
@@ -952,7 +954,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2">
         <v>73</v>
@@ -961,7 +963,7 @@
         <v>26099.74</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="4">
         <v>43617</v>
@@ -969,7 +971,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2">
         <v>72</v>
@@ -978,7 +980,7 @@
         <v>24300.21</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="5">
         <v>42961</v>
@@ -986,7 +988,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2">
         <v>72</v>
@@ -995,7 +997,7 @@
         <v>24070.17</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="5">
         <v>42251</v>
@@ -1010,7 +1012,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2">
         <v>24</v>
@@ -1019,7 +1021,7 @@
         <v>11662.08</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="4">
         <v>43374</v>
@@ -1027,7 +1029,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2">
         <v>23</v>
@@ -1036,7 +1038,7 @@
         <v>12285.31</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" s="5">
         <v>43178</v>
@@ -1044,7 +1046,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2">
         <v>23</v>
@@ -1053,7 +1055,7 @@
         <v>11410.69</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E15" s="5">
         <v>41121</v>
@@ -1061,7 +1063,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2">
         <v>22</v>
@@ -1070,7 +1072,7 @@
         <v>10990.64</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="5">
         <v>44549</v>
@@ -1078,7 +1080,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="B17" s="2">
         <v>24</v>
@@ -1087,7 +1089,7 @@
         <v>11425.23</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E17" s="2">
         <v>2009</v>
@@ -1095,7 +1097,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2">
         <v>23</v>
@@ -1104,7 +1106,7 @@
         <v>12235.3</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="4">
         <v>43374</v>
@@ -1112,7 +1114,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2">
         <v>23</v>
@@ -1121,7 +1123,7 @@
         <v>13427.12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="5">
         <v>44549</v>
@@ -1129,7 +1131,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2">
         <v>23</v>
@@ -1138,7 +1140,7 @@
         <v>11288.01</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20" s="5">
         <v>42081</v>
@@ -1146,7 +1148,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B21" s="2">
         <v>23</v>
@@ -1155,7 +1157,7 @@
         <v>11592.52</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" s="5">
         <v>43108</v>
@@ -1163,7 +1165,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B22" s="2">
         <v>23</v>
@@ -1172,7 +1174,7 @@
         <v>10977.36</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E22" s="5">
         <v>42559</v>
@@ -1187,7 +1189,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B24" s="7">
         <v>80</v>
@@ -1196,7 +1198,7 @@
         <v>36767.919999999998</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="8">
         <v>44549</v>
@@ -1204,7 +1206,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2">
         <v>72</v>
@@ -1213,7 +1215,7 @@
         <v>32313.17</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" s="5">
         <v>44549</v>
@@ -1221,7 +1223,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B26" s="2">
         <v>72</v>
@@ -1230,7 +1232,7 @@
         <v>29338.97</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" s="5">
         <v>44549</v>
@@ -1238,7 +1240,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B27" s="2">
         <v>72</v>
@@ -1247,7 +1249,7 @@
         <v>27769.19</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E27" s="5">
         <v>44549</v>
@@ -1255,7 +1257,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2">
         <v>72</v>
@@ -1264,7 +1266,7 @@
         <v>33529.08</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E28" s="5">
         <v>44549</v>
@@ -1272,7 +1274,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2">
         <v>72</v>
@@ -1281,7 +1283,7 @@
         <v>30906.9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E29" s="5">
         <v>44549</v>
@@ -1289,7 +1291,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B30" s="2">
         <v>72</v>
@@ -1298,7 +1300,7 @@
         <v>28823.759999999998</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E30" s="5">
         <v>44549</v>
@@ -1306,7 +1308,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2">
         <v>72</v>
@@ -1315,7 +1317,7 @@
         <v>27643.38</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E31" s="5">
         <v>44549</v>
@@ -1323,7 +1325,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B32" s="2">
         <v>72</v>
@@ -1332,7 +1334,7 @@
         <v>32293.46</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E32" s="5">
         <v>44549</v>
@@ -1340,7 +1342,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2">
         <v>72</v>
@@ -1349,7 +1351,7 @@
         <v>30952.77</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E33" s="4">
         <v>43831</v>
@@ -1364,7 +1366,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B35" s="2">
         <v>15</v>
@@ -1373,7 +1375,7 @@
         <v>28112.36</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E35" s="5">
         <v>43160</v>
@@ -1381,7 +1383,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B36" s="2">
         <v>15</v>
@@ -1390,7 +1392,7 @@
         <v>22795.79</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E36" s="4">
         <v>43586</v>
@@ -1398,7 +1400,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B37" s="2">
         <v>15</v>
@@ -1407,7 +1409,7 @@
         <v>17703.990000000002</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E37" s="5">
         <v>43290</v>
@@ -1415,7 +1417,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B38" s="2">
         <v>15</v>
@@ -1424,7 +1426,7 @@
         <v>13192.32</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E38" s="4">
         <v>43374</v>
@@ -1432,7 +1434,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B39" s="2">
         <v>15</v>
@@ -1441,7 +1443,7 @@
         <v>24255</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E39" s="4">
         <v>43374</v>
@@ -1449,7 +1451,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B40" s="19">
         <v>15</v>
@@ -1458,10 +1460,10 @@
         <v>20412.02</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1469,13 +1471,13 @@
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
       <c r="D41" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E41" s="20"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B42" s="2">
         <v>15</v>
@@ -1484,7 +1486,7 @@
         <v>16597.87</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E42" s="4">
         <v>43525</v>
@@ -1492,7 +1494,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B43" s="2">
         <v>15</v>
@@ -1501,7 +1503,7 @@
         <v>12642.67</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E43" s="5">
         <v>43285</v>
@@ -1509,7 +1511,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B44" s="2">
         <v>15</v>
@@ -1518,7 +1520,7 @@
         <v>22277.040000000001</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E44" s="4">
         <v>43647</v>
@@ -1526,7 +1528,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B45" s="2">
         <v>15</v>
@@ -1535,7 +1537,7 @@
         <v>20358.61</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E45" s="5">
         <v>43362</v>
@@ -1550,7 +1552,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B47" s="2">
         <v>72</v>
@@ -1559,7 +1561,7 @@
         <v>30464.65</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E47" s="4">
         <v>43678</v>
@@ -1567,7 +1569,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B48" s="2">
         <v>72</v>
@@ -1576,7 +1578,7 @@
         <v>28511.37</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E48" s="5">
         <v>45306</v>
@@ -1584,7 +1586,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B49" s="2">
         <v>72</v>
@@ -1593,7 +1595,7 @@
         <v>27528.16</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E49" s="5">
         <v>44549</v>
@@ -1601,7 +1603,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B50" s="2">
         <v>72</v>
@@ -1610,7 +1612,7 @@
         <v>26663.45</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E50" s="4">
         <v>43831</v>
@@ -1618,7 +1620,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B51" s="2">
         <v>72</v>
@@ -1627,7 +1629,7 @@
         <v>29508.27</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E51" s="4">
         <v>43586</v>
@@ -1635,7 +1637,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B52" s="2">
         <v>72</v>
@@ -1644,7 +1646,7 @@
         <v>29458.38</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E52" s="4">
         <v>43556</v>
@@ -1652,7 +1654,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B53" s="2">
         <v>72</v>
@@ -1661,7 +1663,7 @@
         <v>28979.599999999999</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E53" s="5">
         <v>44549</v>
@@ -1669,7 +1671,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B54" s="2">
         <v>72</v>
@@ -1678,7 +1680,7 @@
         <v>28605.599999999999</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E54" s="5">
         <v>45306</v>
@@ -1686,7 +1688,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B55" s="2">
         <v>72</v>
@@ -1695,7 +1697,7 @@
         <v>28555.53</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E55" s="4">
         <v>43556</v>
@@ -1703,7 +1705,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B56" s="2">
         <v>72</v>
@@ -1712,7 +1714,7 @@
         <v>28331.16</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E56" s="5">
         <v>44549</v>
@@ -1727,7 +1729,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B58" s="2">
         <v>18</v>
@@ -1736,7 +1738,7 @@
         <v>20981.14</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E58" s="5">
         <v>41004</v>
@@ -1744,7 +1746,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B59" s="2">
         <v>16</v>
@@ -1753,7 +1755,7 @@
         <v>18151.95</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E59" s="5">
         <v>43362</v>
@@ -1761,7 +1763,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B60" s="2">
         <v>15</v>
@@ -1770,7 +1772,7 @@
         <v>14427.39</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E60" s="5">
         <v>43368</v>
@@ -1778,7 +1780,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B61" s="2">
         <v>15</v>
@@ -1787,7 +1789,7 @@
         <v>10999.03</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E61" s="5">
         <v>43369</v>
@@ -1795,7 +1797,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B62" s="19">
         <v>15</v>
@@ -1804,10 +1806,10 @@
         <v>19074.02</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -1815,13 +1817,13 @@
       <c r="B63" s="20"/>
       <c r="C63" s="20"/>
       <c r="D63" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E63" s="20"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B64" s="2">
         <v>15</v>
@@ -1830,7 +1832,7 @@
         <v>18143.04</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E64" s="5">
         <v>43362</v>
@@ -1838,7 +1840,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B65" s="2">
         <v>15</v>
@@ -1847,7 +1849,7 @@
         <v>16817.46</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E65" s="5">
         <v>43368</v>
@@ -1855,7 +1857,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B66" s="2">
         <v>15</v>
@@ -1864,7 +1866,7 @@
         <v>15759.14</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E66" s="5">
         <v>43369</v>
@@ -1872,7 +1874,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B67" s="2">
         <v>15</v>
@@ -1881,7 +1883,7 @@
         <v>15325.25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E67" s="5">
         <v>44549</v>
@@ -1889,7 +1891,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B68" s="2">
         <v>15</v>
@@ -1898,7 +1900,7 @@
         <v>14411.81</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E68" s="4">
         <v>43374</v>
